--- a/Code/Results/Cases/Case_2_100/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_100/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9876041014291044</v>
+        <v>1.017347447144331</v>
       </c>
       <c r="D2">
-        <v>1.007969122236466</v>
+        <v>1.023252758806419</v>
       </c>
       <c r="E2">
-        <v>0.9999741505055906</v>
+        <v>1.04485218078264</v>
       </c>
       <c r="F2">
-        <v>1.001802109580983</v>
+        <v>1.048072276014635</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038083995443778</v>
+        <v>1.026900141761679</v>
       </c>
       <c r="J2">
-        <v>1.010162000391011</v>
+        <v>1.022562078628814</v>
       </c>
       <c r="K2">
-        <v>1.019318539845266</v>
+        <v>1.026084741980745</v>
       </c>
       <c r="L2">
-        <v>1.011433845463977</v>
+        <v>1.047622066623595</v>
       </c>
       <c r="M2">
-        <v>1.013236395120116</v>
+        <v>1.050833142073923</v>
       </c>
       <c r="N2">
-        <v>1.00742959565822</v>
+        <v>1.011623335092795</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9916527290470288</v>
+        <v>1.018192036312429</v>
       </c>
       <c r="D3">
-        <v>1.010798452155867</v>
+        <v>1.023856007039742</v>
       </c>
       <c r="E3">
-        <v>1.00540734521313</v>
+        <v>1.046083947833962</v>
       </c>
       <c r="F3">
-        <v>1.007500961238059</v>
+        <v>1.049365127179596</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038805640900241</v>
+        <v>1.026985701210567</v>
       </c>
       <c r="J3">
-        <v>1.012373564897995</v>
+        <v>1.023043066375941</v>
       </c>
       <c r="K3">
-        <v>1.021295004351119</v>
+        <v>1.026495385174521</v>
       </c>
       <c r="L3">
-        <v>1.015971502442929</v>
+        <v>1.048664059751691</v>
       </c>
       <c r="M3">
-        <v>1.018038757147707</v>
+        <v>1.051936720123</v>
       </c>
       <c r="N3">
-        <v>1.008169099288801</v>
+        <v>1.011783283761708</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9942188117105107</v>
+        <v>1.018738763131138</v>
       </c>
       <c r="D4">
-        <v>1.012592964136216</v>
+        <v>1.024246269601081</v>
       </c>
       <c r="E4">
-        <v>1.008851700821623</v>
+        <v>1.046881853694204</v>
       </c>
       <c r="F4">
-        <v>1.011113572297827</v>
+        <v>1.050202610550996</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03925148504708</v>
+        <v>1.02703963978873</v>
       </c>
       <c r="J4">
-        <v>1.01377156596025</v>
+        <v>1.023353894167329</v>
       </c>
       <c r="K4">
-        <v>1.022541742395728</v>
+        <v>1.026760326248456</v>
       </c>
       <c r="L4">
-        <v>1.01884445474209</v>
+        <v>1.049338607238758</v>
       </c>
       <c r="M4">
-        <v>1.021079691520569</v>
+        <v>1.052651181048792</v>
       </c>
       <c r="N4">
-        <v>1.008636462813393</v>
+        <v>1.011886614886638</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9952851847448878</v>
+        <v>1.018968659008877</v>
       </c>
       <c r="D5">
-        <v>1.013338940844108</v>
+        <v>1.024410315520783</v>
       </c>
       <c r="E5">
-        <v>1.010283382661822</v>
+        <v>1.047217502670192</v>
       </c>
       <c r="F5">
-        <v>1.012615152197755</v>
+        <v>1.050554910351702</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039433948885898</v>
+        <v>1.02706197409507</v>
       </c>
       <c r="J5">
-        <v>1.014351610770037</v>
+        <v>1.023484468789004</v>
       </c>
       <c r="K5">
-        <v>1.023058367120615</v>
+        <v>1.026871521537065</v>
       </c>
       <c r="L5">
-        <v>1.020037732652908</v>
+        <v>1.049622261644932</v>
       </c>
       <c r="M5">
-        <v>1.022342827566244</v>
+        <v>1.052951630282977</v>
       </c>
       <c r="N5">
-        <v>1.008830350257172</v>
+        <v>1.011930015161328</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9954635181137578</v>
+        <v>1.019007262553479</v>
       </c>
       <c r="D6">
-        <v>1.013463705759479</v>
+        <v>1.024437858310245</v>
       </c>
       <c r="E6">
-        <v>1.010522831767381</v>
+        <v>1.047273871916593</v>
       </c>
       <c r="F6">
-        <v>1.012866289433623</v>
+        <v>1.050614076073954</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039464296347469</v>
+        <v>1.027065704083649</v>
       </c>
       <c r="J6">
-        <v>1.014448559320798</v>
+        <v>1.023506387108838</v>
       </c>
       <c r="K6">
-        <v>1.023144676180887</v>
+        <v>1.026890180782827</v>
       </c>
       <c r="L6">
-        <v>1.020237255765331</v>
+        <v>1.049669892869678</v>
       </c>
       <c r="M6">
-        <v>1.022554036309463</v>
+        <v>1.053002082323512</v>
       </c>
       <c r="N6">
-        <v>1.008862754937917</v>
+        <v>1.011937299896323</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9942331088331201</v>
+        <v>1.018741834808365</v>
       </c>
       <c r="D7">
-        <v>1.012602964747893</v>
+        <v>1.024248461672929</v>
       </c>
       <c r="E7">
-        <v>1.0088708942225</v>
+        <v>1.046886337828345</v>
       </c>
       <c r="F7">
-        <v>1.01113370292155</v>
+        <v>1.050207317125408</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03925394255382</v>
+        <v>1.027039939563251</v>
       </c>
       <c r="J7">
-        <v>1.013779346404907</v>
+        <v>1.023355639295463</v>
       </c>
       <c r="K7">
-        <v>1.022548674792229</v>
+        <v>1.026761812777213</v>
       </c>
       <c r="L7">
-        <v>1.018860455600937</v>
+        <v>1.049342397148454</v>
       </c>
       <c r="M7">
-        <v>1.021096628782935</v>
+        <v>1.052655195312098</v>
       </c>
       <c r="N7">
-        <v>1.008639063634637</v>
+        <v>1.0118871949613</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9889837322680008</v>
+        <v>1.017632833603589</v>
       </c>
       <c r="D8">
-        <v>1.008932964377238</v>
+        <v>1.023456644934078</v>
       </c>
       <c r="E8">
-        <v>1.001825543560571</v>
+        <v>1.045268282654309</v>
       </c>
       <c r="F8">
-        <v>1.003744058828642</v>
+        <v>1.0485090107738</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038332301968235</v>
+        <v>1.026929351525518</v>
       </c>
       <c r="J8">
-        <v>1.010916391714387</v>
+        <v>1.02272471374725</v>
       </c>
       <c r="K8">
-        <v>1.019993277439855</v>
+        <v>1.026223680132148</v>
       </c>
       <c r="L8">
-        <v>1.012980843352409</v>
+        <v>1.047974149759866</v>
       </c>
       <c r="M8">
-        <v>1.014873552184003</v>
+        <v>1.051206024852075</v>
       </c>
       <c r="N8">
-        <v>1.007681868965733</v>
+        <v>1.011677424757957</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9793019963186851</v>
+        <v>1.015680370445265</v>
       </c>
       <c r="D9">
-        <v>1.002176723948567</v>
+        <v>1.022060818779864</v>
       </c>
       <c r="E9">
-        <v>0.9888291917318035</v>
+        <v>1.042423681797867</v>
       </c>
       <c r="F9">
-        <v>0.9901114167618752</v>
+        <v>1.045523395857631</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036542536810456</v>
+        <v>1.026723598010628</v>
       </c>
       <c r="J9">
-        <v>1.005607439307407</v>
+        <v>1.021609887423023</v>
       </c>
       <c r="K9">
-        <v>1.015234583769835</v>
+        <v>1.025269548670582</v>
       </c>
       <c r="L9">
-        <v>1.002106145432004</v>
+        <v>1.045565446112952</v>
       </c>
       <c r="M9">
-        <v>1.003366992973787</v>
+        <v>1.04865521688417</v>
       </c>
       <c r="N9">
-        <v>1.005906187981614</v>
+        <v>1.011306522076245</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9725262910409412</v>
+        <v>1.014379956500186</v>
       </c>
       <c r="D10">
-        <v>0.9974608569923684</v>
+        <v>1.021129988111977</v>
       </c>
       <c r="E10">
-        <v>0.9797202883426718</v>
+        <v>1.040531665623966</v>
       </c>
       <c r="F10">
-        <v>0.9805558445676656</v>
+        <v>1.043537638909543</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035231860924957</v>
+        <v>1.026579143363579</v>
       </c>
       <c r="J10">
-        <v>1.001873999436216</v>
+        <v>1.020864662243278</v>
       </c>
       <c r="K10">
-        <v>1.011876108289193</v>
+        <v>1.024629570583584</v>
       </c>
       <c r="L10">
-        <v>0.9944656141805004</v>
+        <v>1.043961150843651</v>
       </c>
       <c r="M10">
-        <v>0.9952852738454419</v>
+        <v>1.046956520806797</v>
       </c>
       <c r="N10">
-        <v>1.004657148450873</v>
+        <v>1.011058423630407</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9695086136469364</v>
+        <v>1.013817166248488</v>
       </c>
       <c r="D11">
-        <v>0.9953644358614415</v>
+        <v>1.020726879665883</v>
       </c>
       <c r="E11">
-        <v>0.9756573127294016</v>
+        <v>1.039713426337722</v>
       </c>
       <c r="F11">
-        <v>0.9762934898337601</v>
+        <v>1.042678872596296</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034634965724784</v>
+        <v>1.026514871417588</v>
       </c>
       <c r="J11">
-        <v>1.000207283233361</v>
+        <v>1.020541504808619</v>
       </c>
       <c r="K11">
-        <v>1.010374304828227</v>
+        <v>1.02435154229953</v>
       </c>
       <c r="L11">
-        <v>0.9910533757481704</v>
+        <v>1.043266817974231</v>
       </c>
       <c r="M11">
-        <v>0.9916767653849109</v>
+        <v>1.046221391777876</v>
       </c>
       <c r="N11">
-        <v>1.004099499575094</v>
+        <v>1.010950801037839</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9683744348827991</v>
+        <v>1.013608166513698</v>
       </c>
       <c r="D12">
-        <v>0.9945771696619188</v>
+        <v>1.020577140755195</v>
       </c>
       <c r="E12">
-        <v>0.974129059734381</v>
+        <v>1.039409647106958</v>
       </c>
       <c r="F12">
-        <v>0.9746902222826221</v>
+        <v>1.042360049339323</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034408702320268</v>
+        <v>1.026490739725249</v>
       </c>
       <c r="J12">
-        <v>0.9995802867478147</v>
+        <v>1.020421399859451</v>
       </c>
       <c r="K12">
-        <v>1.00980900524376</v>
+        <v>1.024248133902741</v>
       </c>
       <c r="L12">
-        <v>0.9897692767675319</v>
+        <v>1.043008961365806</v>
       </c>
       <c r="M12">
-        <v>0.9903189303507676</v>
+        <v>1.045948393748533</v>
       </c>
       <c r="N12">
-        <v>1.003889716249855</v>
+        <v>1.010910796299761</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9686183327252262</v>
+        <v>1.013652995587025</v>
       </c>
       <c r="D13">
-        <v>0.9947464348909522</v>
+        <v>1.020609260530565</v>
       </c>
       <c r="E13">
-        <v>0.9744577598190248</v>
+        <v>1.039474801960205</v>
       </c>
       <c r="F13">
-        <v>0.9750350575302373</v>
+        <v>1.042428430756653</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034457444820825</v>
+        <v>1.026495927732588</v>
       </c>
       <c r="J13">
-        <v>0.9997151436248529</v>
+        <v>1.020447165929774</v>
       </c>
       <c r="K13">
-        <v>1.009930606993109</v>
+        <v>1.024270321508306</v>
       </c>
       <c r="L13">
-        <v>0.9900454911208281</v>
+        <v>1.043064270261004</v>
       </c>
       <c r="M13">
-        <v>0.9906109998025504</v>
+        <v>1.046006949981765</v>
       </c>
       <c r="N13">
-        <v>1.003934837372244</v>
+        <v>1.010919378755866</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9694151371716611</v>
+        <v>1.013799889329216</v>
       </c>
       <c r="D14">
-        <v>0.9952995371858959</v>
+        <v>1.020714502324919</v>
       </c>
       <c r="E14">
-        <v>0.9755313836962711</v>
+        <v>1.039688312773915</v>
       </c>
       <c r="F14">
-        <v>0.9761613799442809</v>
+        <v>1.042652515294469</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034616356376002</v>
+        <v>1.02651288194929</v>
       </c>
       <c r="J14">
-        <v>1.000155619014375</v>
+        <v>1.02053157831759</v>
       </c>
       <c r="K14">
-        <v>1.010327731148356</v>
+        <v>1.024342997304524</v>
       </c>
       <c r="L14">
-        <v>0.9909475775459299</v>
+        <v>1.043245502462865</v>
       </c>
       <c r="M14">
-        <v>0.991564889404534</v>
+        <v>1.046198824424925</v>
       </c>
       <c r="N14">
-        <v>1.004082213574838</v>
+        <v>1.010947494821956</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9699042933998182</v>
+        <v>1.013890401484792</v>
       </c>
       <c r="D15">
-        <v>0.9956391751919034</v>
+        <v>1.020779344450856</v>
       </c>
       <c r="E15">
-        <v>0.9761903112247335</v>
+        <v>1.039819883836235</v>
       </c>
       <c r="F15">
-        <v>0.9768526481969195</v>
+        <v>1.042790602438132</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034713659801412</v>
+        <v>1.02652329379876</v>
       </c>
       <c r="J15">
-        <v>1.000425951400084</v>
+        <v>1.02058357833632</v>
       </c>
       <c r="K15">
-        <v>1.010571413646008</v>
+        <v>1.024387757226386</v>
       </c>
       <c r="L15">
-        <v>0.9915011449391602</v>
+        <v>1.043357172132404</v>
       </c>
       <c r="M15">
-        <v>0.9921502626616848</v>
+        <v>1.046317052734532</v>
       </c>
       <c r="N15">
-        <v>1.004172662243271</v>
+        <v>1.010964814235031</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.972724741515857</v>
+        <v>1.014417313383344</v>
       </c>
       <c r="D16">
-        <v>0.9975988106663662</v>
+        <v>1.021156740104617</v>
       </c>
       <c r="E16">
-        <v>0.979987328998228</v>
+        <v>1.040585990761116</v>
       </c>
       <c r="F16">
-        <v>0.9808359866384579</v>
+        <v>1.043594655026555</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035270844656657</v>
+        <v>1.026583372640409</v>
       </c>
       <c r="J16">
-        <v>1.001983526716914</v>
+        <v>1.020886099297188</v>
       </c>
       <c r="K16">
-        <v>1.011974749420122</v>
+        <v>1.024648003237803</v>
       </c>
       <c r="L16">
-        <v>0.9946897985686592</v>
+        <v>1.04400723844068</v>
       </c>
       <c r="M16">
-        <v>0.9955223698974867</v>
+        <v>1.047005317602176</v>
       </c>
       <c r="N16">
-        <v>1.004693793410621</v>
+        <v>1.011065562117107</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9744710355137577</v>
+        <v>1.014747911611043</v>
       </c>
       <c r="D17">
-        <v>0.9988132044976198</v>
+        <v>1.021393457343414</v>
       </c>
       <c r="E17">
-        <v>0.982336459074305</v>
+        <v>1.041066820470889</v>
       </c>
       <c r="F17">
-        <v>0.9833003523054971</v>
+        <v>1.044099304007535</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035612396002282</v>
+        <v>1.026620597801025</v>
       </c>
       <c r="J17">
-        <v>1.002946880027769</v>
+        <v>1.021075737379735</v>
       </c>
       <c r="K17">
-        <v>1.012842074585654</v>
+        <v>1.024811004765018</v>
       </c>
       <c r="L17">
-        <v>0.9966614483616434</v>
+        <v>1.044415097402705</v>
       </c>
       <c r="M17">
-        <v>0.997607662659677</v>
+        <v>1.047437158981242</v>
       </c>
       <c r="N17">
-        <v>1.005016101864196</v>
+        <v>1.011128706772829</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9754815880144754</v>
+        <v>1.014940772613499</v>
       </c>
       <c r="D18">
-        <v>0.9995163166666839</v>
+        <v>1.021531525331413</v>
       </c>
       <c r="E18">
-        <v>0.9836952974263099</v>
+        <v>1.041347378448042</v>
       </c>
       <c r="F18">
-        <v>0.9847258340293892</v>
+        <v>1.044393761474703</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035808793819268</v>
+        <v>1.026642144413243</v>
       </c>
       <c r="J18">
-        <v>1.003503979406875</v>
+        <v>1.021186304666802</v>
       </c>
       <c r="K18">
-        <v>1.013343404341194</v>
+        <v>1.024905992591122</v>
       </c>
       <c r="L18">
-        <v>0.997801534284825</v>
+        <v>1.044653027284265</v>
       </c>
       <c r="M18">
-        <v>0.9988135330437095</v>
+        <v>1.047689085116479</v>
       </c>
       <c r="N18">
-        <v>1.005202486110226</v>
+        <v>1.011165519213579</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9758248183795094</v>
+        <v>1.015006538062927</v>
       </c>
       <c r="D19">
-        <v>0.9997551850774293</v>
+        <v>1.021578602026675</v>
       </c>
       <c r="E19">
-        <v>0.9841567337031875</v>
+        <v>1.041443058157334</v>
       </c>
       <c r="F19">
-        <v>0.9852098987476369</v>
+        <v>1.04449418158765</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035875285550028</v>
+        <v>1.026649463046535</v>
       </c>
       <c r="J19">
-        <v>1.003693131260382</v>
+        <v>1.021223997531996</v>
       </c>
       <c r="K19">
-        <v>1.013513579556695</v>
+        <v>1.024938365995119</v>
       </c>
       <c r="L19">
-        <v>0.9981886176434391</v>
+        <v>1.044734160799152</v>
       </c>
       <c r="M19">
-        <v>0.999222963481884</v>
+        <v>1.047774992298796</v>
       </c>
       <c r="N19">
-        <v>1.005265768335836</v>
+        <v>1.01117806811253</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9742845102730356</v>
+        <v>1.014712438579934</v>
       </c>
       <c r="D20">
-        <v>0.9986834544962757</v>
+        <v>1.02136806034868</v>
       </c>
       <c r="E20">
-        <v>0.9820856042778487</v>
+        <v>1.041015221852147</v>
       </c>
       <c r="F20">
-        <v>0.9830371933581352</v>
+        <v>1.044045149174211</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035576043769872</v>
+        <v>1.026616621080201</v>
       </c>
       <c r="J20">
-        <v>1.002844021301951</v>
+        <v>1.021055395698655</v>
       </c>
       <c r="K20">
-        <v>1.01274949334037</v>
+        <v>1.024793525360635</v>
       </c>
       <c r="L20">
-        <v>0.9964509448029906</v>
+        <v>1.044371334627296</v>
       </c>
       <c r="M20">
-        <v>0.9973850184888324</v>
+        <v>1.047390822320898</v>
       </c>
       <c r="N20">
-        <v>1.00498168889672</v>
+        <v>1.011121933888152</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9691808705373356</v>
+        <v>1.013756631516591</v>
       </c>
       <c r="D21">
-        <v>0.9951369019409771</v>
+        <v>1.020683511407211</v>
       </c>
       <c r="E21">
-        <v>0.9752157655031525</v>
+        <v>1.039625434996259</v>
       </c>
       <c r="F21">
-        <v>0.9758302702474694</v>
+        <v>1.042586523555925</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034569687648732</v>
+        <v>1.026507896479435</v>
       </c>
       <c r="J21">
-        <v>1.000026131331662</v>
+        <v>1.020506722896776</v>
       </c>
       <c r="K21">
-        <v>1.01021099666367</v>
+        <v>1.024321599849322</v>
       </c>
       <c r="L21">
-        <v>0.9906824037768738</v>
+        <v>1.043192132738578</v>
       </c>
       <c r="M21">
-        <v>0.9912844842672963</v>
+        <v>1.04614232049156</v>
       </c>
       <c r="N21">
-        <v>1.00403888907834</v>
+        <v>1.010939216137224</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9658947982233934</v>
+        <v>1.013155942094173</v>
       </c>
       <c r="D22">
-        <v>0.992857294246043</v>
+        <v>1.020253071494576</v>
       </c>
       <c r="E22">
-        <v>0.970785322982465</v>
+        <v>1.038752495364843</v>
       </c>
       <c r="F22">
-        <v>0.9711823233753381</v>
+        <v>1.041670357319081</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033910550636638</v>
+        <v>1.026438043216497</v>
       </c>
       <c r="J22">
-        <v>0.9982084756804035</v>
+        <v>1.020161346528809</v>
       </c>
       <c r="K22">
-        <v>1.008571590042578</v>
+        <v>1.024024093347198</v>
       </c>
       <c r="L22">
-        <v>0.986958627206183</v>
+        <v>1.042451007718959</v>
       </c>
       <c r="M22">
-        <v>0.9873471273044722</v>
+        <v>1.045357693826575</v>
       </c>
       <c r="N22">
-        <v>1.003430726887151</v>
+        <v>1.010824167078206</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9676443722484193</v>
+        <v>1.013474353552867</v>
       </c>
       <c r="D23">
-        <v>0.9940706094180222</v>
+        <v>1.02048125885402</v>
       </c>
       <c r="E23">
-        <v>0.9731449582739744</v>
+        <v>1.039215174751476</v>
       </c>
       <c r="F23">
-        <v>0.9736578106969647</v>
+        <v>1.04215594672872</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034262523147134</v>
+        <v>1.026475215179987</v>
       </c>
       <c r="J23">
-        <v>0.9991765363977025</v>
+        <v>1.020344475129224</v>
       </c>
       <c r="K23">
-        <v>1.009444892175521</v>
+        <v>1.024181881573269</v>
       </c>
       <c r="L23">
-        <v>0.9889422247673079</v>
+        <v>1.042843865397133</v>
       </c>
       <c r="M23">
-        <v>0.9894444234426227</v>
+        <v>1.045773605894255</v>
       </c>
       <c r="N23">
-        <v>1.003754627095644</v>
+        <v>1.010885172512399</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9743688177686332</v>
+        <v>1.0147284672273</v>
       </c>
       <c r="D24">
-        <v>0.9987420990503199</v>
+        <v>1.021379536173526</v>
       </c>
       <c r="E24">
-        <v>0.9821989898063014</v>
+        <v>1.04103853674327</v>
       </c>
       <c r="F24">
-        <v>0.9831561403647907</v>
+        <v>1.044069619089777</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035592478493674</v>
+        <v>1.026618418502722</v>
       </c>
       <c r="J24">
-        <v>1.002890513564451</v>
+        <v>1.021064587369054</v>
       </c>
       <c r="K24">
-        <v>1.012791340908315</v>
+        <v>1.024801423823706</v>
       </c>
       <c r="L24">
-        <v>0.9965460929536024</v>
+        <v>1.044391109040518</v>
       </c>
       <c r="M24">
-        <v>0.9974856540060935</v>
+        <v>1.047411759738094</v>
       </c>
       <c r="N24">
-        <v>1.004997243610612</v>
+        <v>1.011124994321214</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9818591743881889</v>
+        <v>1.016184916833098</v>
       </c>
       <c r="D25">
-        <v>1.003959355223595</v>
+        <v>1.022421728892203</v>
       </c>
       <c r="E25">
-        <v>0.9922632499971871</v>
+        <v>1.043158301717278</v>
       </c>
       <c r="F25">
-        <v>0.9937137319672521</v>
+        <v>1.046294423985439</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037025471684403</v>
+        <v>1.026778076684119</v>
       </c>
       <c r="J25">
-        <v>1.007012861989057</v>
+        <v>1.021898453992095</v>
       </c>
       <c r="K25">
-        <v>1.016496516670256</v>
+        <v>1.025516904492058</v>
       </c>
       <c r="L25">
-        <v>1.004982868202776</v>
+        <v>1.046187884104652</v>
       </c>
       <c r="M25">
-        <v>1.006410424337005</v>
+        <v>1.049314333445733</v>
       </c>
       <c r="N25">
-        <v>1.006376324438109</v>
+        <v>1.011402556892834</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_100/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_100/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017347447144331</v>
+        <v>0.987604101429105</v>
       </c>
       <c r="D2">
-        <v>1.023252758806419</v>
+        <v>1.007969122236466</v>
       </c>
       <c r="E2">
-        <v>1.04485218078264</v>
+        <v>0.999974150505591</v>
       </c>
       <c r="F2">
-        <v>1.048072276014635</v>
+        <v>1.001802109580983</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026900141761679</v>
+        <v>1.038083995443778</v>
       </c>
       <c r="J2">
-        <v>1.022562078628814</v>
+        <v>1.010162000391011</v>
       </c>
       <c r="K2">
-        <v>1.026084741980745</v>
+        <v>1.019318539845267</v>
       </c>
       <c r="L2">
-        <v>1.047622066623595</v>
+        <v>1.011433845463978</v>
       </c>
       <c r="M2">
-        <v>1.050833142073923</v>
+        <v>1.013236395120116</v>
       </c>
       <c r="N2">
-        <v>1.011623335092795</v>
+        <v>1.00742959565822</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018192036312429</v>
+        <v>0.9916527290470279</v>
       </c>
       <c r="D3">
-        <v>1.023856007039742</v>
+        <v>1.010798452155867</v>
       </c>
       <c r="E3">
-        <v>1.046083947833962</v>
+        <v>1.00540734521313</v>
       </c>
       <c r="F3">
-        <v>1.049365127179596</v>
+        <v>1.007500961238059</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026985701210567</v>
+        <v>1.03880564090024</v>
       </c>
       <c r="J3">
-        <v>1.023043066375941</v>
+        <v>1.012373564897995</v>
       </c>
       <c r="K3">
-        <v>1.026495385174521</v>
+        <v>1.021295004351118</v>
       </c>
       <c r="L3">
-        <v>1.048664059751691</v>
+        <v>1.015971502442929</v>
       </c>
       <c r="M3">
-        <v>1.051936720123</v>
+        <v>1.018038757147707</v>
       </c>
       <c r="N3">
-        <v>1.011783283761708</v>
+        <v>1.008169099288801</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018738763131138</v>
+        <v>0.9942188117105109</v>
       </c>
       <c r="D4">
-        <v>1.024246269601081</v>
+        <v>1.012592964136216</v>
       </c>
       <c r="E4">
-        <v>1.046881853694204</v>
+        <v>1.008851700821623</v>
       </c>
       <c r="F4">
-        <v>1.050202610550996</v>
+        <v>1.011113572297827</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02703963978873</v>
+        <v>1.03925148504708</v>
       </c>
       <c r="J4">
-        <v>1.023353894167329</v>
+        <v>1.01377156596025</v>
       </c>
       <c r="K4">
-        <v>1.026760326248456</v>
+        <v>1.022541742395728</v>
       </c>
       <c r="L4">
-        <v>1.049338607238758</v>
+        <v>1.01884445474209</v>
       </c>
       <c r="M4">
-        <v>1.052651181048792</v>
+        <v>1.021079691520569</v>
       </c>
       <c r="N4">
-        <v>1.011886614886638</v>
+        <v>1.008636462813393</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018968659008877</v>
+        <v>0.9952851847448883</v>
       </c>
       <c r="D5">
-        <v>1.024410315520783</v>
+        <v>1.013338940844109</v>
       </c>
       <c r="E5">
-        <v>1.047217502670192</v>
+        <v>1.010283382661823</v>
       </c>
       <c r="F5">
-        <v>1.050554910351702</v>
+        <v>1.012615152197756</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.02706197409507</v>
+        <v>1.039433948885899</v>
       </c>
       <c r="J5">
-        <v>1.023484468789004</v>
+        <v>1.014351610770038</v>
       </c>
       <c r="K5">
-        <v>1.026871521537065</v>
+        <v>1.023058367120615</v>
       </c>
       <c r="L5">
-        <v>1.049622261644932</v>
+        <v>1.020037732652908</v>
       </c>
       <c r="M5">
-        <v>1.052951630282977</v>
+        <v>1.022342827566245</v>
       </c>
       <c r="N5">
-        <v>1.011930015161328</v>
+        <v>1.008830350257172</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019007262553479</v>
+        <v>0.9954635181137577</v>
       </c>
       <c r="D6">
-        <v>1.024437858310245</v>
+        <v>1.013463705759478</v>
       </c>
       <c r="E6">
-        <v>1.047273871916593</v>
+        <v>1.010522831767382</v>
       </c>
       <c r="F6">
-        <v>1.050614076073954</v>
+        <v>1.012866289433624</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027065704083649</v>
+        <v>1.039464296347469</v>
       </c>
       <c r="J6">
-        <v>1.023506387108838</v>
+        <v>1.014448559320798</v>
       </c>
       <c r="K6">
-        <v>1.026890180782827</v>
+        <v>1.023144676180886</v>
       </c>
       <c r="L6">
-        <v>1.049669892869678</v>
+        <v>1.020237255765332</v>
       </c>
       <c r="M6">
-        <v>1.053002082323512</v>
+        <v>1.022554036309463</v>
       </c>
       <c r="N6">
-        <v>1.011937299896323</v>
+        <v>1.008862754937917</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018741834808365</v>
+        <v>0.9942331088331201</v>
       </c>
       <c r="D7">
-        <v>1.024248461672929</v>
+        <v>1.012602964747892</v>
       </c>
       <c r="E7">
-        <v>1.046886337828345</v>
+        <v>1.0088708942225</v>
       </c>
       <c r="F7">
-        <v>1.050207317125408</v>
+        <v>1.01113370292155</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027039939563251</v>
+        <v>1.03925394255382</v>
       </c>
       <c r="J7">
-        <v>1.023355639295463</v>
+        <v>1.013779346404907</v>
       </c>
       <c r="K7">
-        <v>1.026761812777213</v>
+        <v>1.022548674792228</v>
       </c>
       <c r="L7">
-        <v>1.049342397148454</v>
+        <v>1.018860455600937</v>
       </c>
       <c r="M7">
-        <v>1.052655195312098</v>
+        <v>1.021096628782935</v>
       </c>
       <c r="N7">
-        <v>1.0118871949613</v>
+        <v>1.008639063634637</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017632833603589</v>
+        <v>0.988983732268001</v>
       </c>
       <c r="D8">
-        <v>1.023456644934078</v>
+        <v>1.008932964377238</v>
       </c>
       <c r="E8">
-        <v>1.045268282654309</v>
+        <v>1.001825543560571</v>
       </c>
       <c r="F8">
-        <v>1.0485090107738</v>
+        <v>1.003744058828642</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026929351525518</v>
+        <v>1.038332301968235</v>
       </c>
       <c r="J8">
-        <v>1.02272471374725</v>
+        <v>1.010916391714387</v>
       </c>
       <c r="K8">
-        <v>1.026223680132148</v>
+        <v>1.019993277439856</v>
       </c>
       <c r="L8">
-        <v>1.047974149759866</v>
+        <v>1.01298084335241</v>
       </c>
       <c r="M8">
-        <v>1.051206024852075</v>
+        <v>1.014873552184003</v>
       </c>
       <c r="N8">
-        <v>1.011677424757957</v>
+        <v>1.007681868965733</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015680370445265</v>
+        <v>0.9793019963186849</v>
       </c>
       <c r="D9">
-        <v>1.022060818779864</v>
+        <v>1.002176723948567</v>
       </c>
       <c r="E9">
-        <v>1.042423681797867</v>
+        <v>0.9888291917318034</v>
       </c>
       <c r="F9">
-        <v>1.045523395857631</v>
+        <v>0.9901114167618752</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026723598010628</v>
+        <v>1.036542536810456</v>
       </c>
       <c r="J9">
-        <v>1.021609887423023</v>
+        <v>1.005607439307407</v>
       </c>
       <c r="K9">
-        <v>1.025269548670582</v>
+        <v>1.015234583769835</v>
       </c>
       <c r="L9">
-        <v>1.045565446112952</v>
+        <v>1.002106145432004</v>
       </c>
       <c r="M9">
-        <v>1.04865521688417</v>
+        <v>1.003366992973787</v>
       </c>
       <c r="N9">
-        <v>1.011306522076245</v>
+        <v>1.005906187981614</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014379956500186</v>
+        <v>0.9725262910409413</v>
       </c>
       <c r="D10">
-        <v>1.021129988111977</v>
+        <v>0.9974608569923687</v>
       </c>
       <c r="E10">
-        <v>1.040531665623966</v>
+        <v>0.9797202883426716</v>
       </c>
       <c r="F10">
-        <v>1.043537638909543</v>
+        <v>0.9805558445676651</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026579143363579</v>
+        <v>1.035231860924957</v>
       </c>
       <c r="J10">
-        <v>1.020864662243278</v>
+        <v>1.001873999436216</v>
       </c>
       <c r="K10">
-        <v>1.024629570583584</v>
+        <v>1.011876108289193</v>
       </c>
       <c r="L10">
-        <v>1.043961150843651</v>
+        <v>0.9944656141805001</v>
       </c>
       <c r="M10">
-        <v>1.046956520806797</v>
+        <v>0.9952852738454414</v>
       </c>
       <c r="N10">
-        <v>1.011058423630407</v>
+        <v>1.004657148450873</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013817166248488</v>
+        <v>0.9695086136469366</v>
       </c>
       <c r="D11">
-        <v>1.020726879665883</v>
+        <v>0.9953644358614414</v>
       </c>
       <c r="E11">
-        <v>1.039713426337722</v>
+        <v>0.9756573127294014</v>
       </c>
       <c r="F11">
-        <v>1.042678872596296</v>
+        <v>0.9762934898337599</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026514871417588</v>
+        <v>1.034634965724784</v>
       </c>
       <c r="J11">
-        <v>1.020541504808619</v>
+        <v>1.000207283233361</v>
       </c>
       <c r="K11">
-        <v>1.02435154229953</v>
+        <v>1.010374304828227</v>
       </c>
       <c r="L11">
-        <v>1.043266817974231</v>
+        <v>0.9910533757481702</v>
       </c>
       <c r="M11">
-        <v>1.046221391777876</v>
+        <v>0.9916767653849106</v>
       </c>
       <c r="N11">
-        <v>1.010950801037839</v>
+        <v>1.004099499575094</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013608166513698</v>
+        <v>0.9683744348827992</v>
       </c>
       <c r="D12">
-        <v>1.020577140755195</v>
+        <v>0.9945771696619186</v>
       </c>
       <c r="E12">
-        <v>1.039409647106958</v>
+        <v>0.9741290597343812</v>
       </c>
       <c r="F12">
-        <v>1.042360049339323</v>
+        <v>0.9746902222826223</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026490739725249</v>
+        <v>1.034408702320267</v>
       </c>
       <c r="J12">
-        <v>1.020421399859451</v>
+        <v>0.9995802867478147</v>
       </c>
       <c r="K12">
-        <v>1.024248133902741</v>
+        <v>1.00980900524376</v>
       </c>
       <c r="L12">
-        <v>1.043008961365806</v>
+        <v>0.989769276767532</v>
       </c>
       <c r="M12">
-        <v>1.045948393748533</v>
+        <v>0.9903189303507679</v>
       </c>
       <c r="N12">
-        <v>1.010910796299761</v>
+        <v>1.003889716249855</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013652995587025</v>
+        <v>0.9686183327252262</v>
       </c>
       <c r="D13">
-        <v>1.020609260530565</v>
+        <v>0.994746434890952</v>
       </c>
       <c r="E13">
-        <v>1.039474801960205</v>
+        <v>0.9744577598190252</v>
       </c>
       <c r="F13">
-        <v>1.042428430756653</v>
+        <v>0.9750350575302376</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026495927732588</v>
+        <v>1.034457444820825</v>
       </c>
       <c r="J13">
-        <v>1.020447165929774</v>
+        <v>0.9997151436248528</v>
       </c>
       <c r="K13">
-        <v>1.024270321508306</v>
+        <v>1.009930606993109</v>
       </c>
       <c r="L13">
-        <v>1.043064270261004</v>
+        <v>0.9900454911208283</v>
       </c>
       <c r="M13">
-        <v>1.046006949981765</v>
+        <v>0.9906109998025505</v>
       </c>
       <c r="N13">
-        <v>1.010919378755866</v>
+        <v>1.003934837372244</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013799889329216</v>
+        <v>0.9694151371716607</v>
       </c>
       <c r="D14">
-        <v>1.020714502324919</v>
+        <v>0.9952995371858958</v>
       </c>
       <c r="E14">
-        <v>1.039688312773915</v>
+        <v>0.9755313836962718</v>
       </c>
       <c r="F14">
-        <v>1.042652515294469</v>
+        <v>0.9761613799442815</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02651288194929</v>
+        <v>1.034616356376002</v>
       </c>
       <c r="J14">
-        <v>1.02053157831759</v>
+        <v>1.000155619014375</v>
       </c>
       <c r="K14">
-        <v>1.024342997304524</v>
+        <v>1.010327731148356</v>
       </c>
       <c r="L14">
-        <v>1.043245502462865</v>
+        <v>0.9909475775459305</v>
       </c>
       <c r="M14">
-        <v>1.046198824424925</v>
+        <v>0.9915648894045344</v>
       </c>
       <c r="N14">
-        <v>1.010947494821956</v>
+        <v>1.004082213574838</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013890401484792</v>
+        <v>0.9699042933998184</v>
       </c>
       <c r="D15">
-        <v>1.020779344450856</v>
+        <v>0.9956391751919038</v>
       </c>
       <c r="E15">
-        <v>1.039819883836235</v>
+        <v>0.9761903112247334</v>
       </c>
       <c r="F15">
-        <v>1.042790602438132</v>
+        <v>0.9768526481969192</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02652329379876</v>
+        <v>1.034713659801412</v>
       </c>
       <c r="J15">
-        <v>1.02058357833632</v>
+        <v>1.000425951400084</v>
       </c>
       <c r="K15">
-        <v>1.024387757226386</v>
+        <v>1.010571413646009</v>
       </c>
       <c r="L15">
-        <v>1.043357172132404</v>
+        <v>0.99150114493916</v>
       </c>
       <c r="M15">
-        <v>1.046317052734532</v>
+        <v>0.9921502626616846</v>
       </c>
       <c r="N15">
-        <v>1.010964814235031</v>
+        <v>1.004172662243271</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014417313383344</v>
+        <v>0.9727247415158561</v>
       </c>
       <c r="D16">
-        <v>1.021156740104617</v>
+        <v>0.9975988106663652</v>
       </c>
       <c r="E16">
-        <v>1.040585990761116</v>
+        <v>0.9799873289982283</v>
       </c>
       <c r="F16">
-        <v>1.043594655026555</v>
+        <v>0.9808359866384577</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026583372640409</v>
+        <v>1.035270844656657</v>
       </c>
       <c r="J16">
-        <v>1.020886099297188</v>
+        <v>1.001983526716913</v>
       </c>
       <c r="K16">
-        <v>1.024648003237803</v>
+        <v>1.011974749420121</v>
       </c>
       <c r="L16">
-        <v>1.04400723844068</v>
+        <v>0.9946897985686595</v>
       </c>
       <c r="M16">
-        <v>1.047005317602176</v>
+        <v>0.9955223698974865</v>
       </c>
       <c r="N16">
-        <v>1.011065562117107</v>
+        <v>1.004693793410621</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014747911611043</v>
+        <v>0.9744710355137571</v>
       </c>
       <c r="D17">
-        <v>1.021393457343414</v>
+        <v>0.998813204497619</v>
       </c>
       <c r="E17">
-        <v>1.041066820470889</v>
+        <v>0.9823364590743043</v>
       </c>
       <c r="F17">
-        <v>1.044099304007535</v>
+        <v>0.9833003523054965</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026620597801025</v>
+        <v>1.035612396002282</v>
       </c>
       <c r="J17">
-        <v>1.021075737379735</v>
+        <v>1.002946880027769</v>
       </c>
       <c r="K17">
-        <v>1.024811004765018</v>
+        <v>1.012842074585654</v>
       </c>
       <c r="L17">
-        <v>1.044415097402705</v>
+        <v>0.9966614483616426</v>
       </c>
       <c r="M17">
-        <v>1.047437158981242</v>
+        <v>0.9976076626596764</v>
       </c>
       <c r="N17">
-        <v>1.011128706772829</v>
+        <v>1.005016101864196</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014940772613499</v>
+        <v>0.975481588014476</v>
       </c>
       <c r="D18">
-        <v>1.021531525331413</v>
+        <v>0.9995163166666852</v>
       </c>
       <c r="E18">
-        <v>1.041347378448042</v>
+        <v>0.9836952974263102</v>
       </c>
       <c r="F18">
-        <v>1.044393761474703</v>
+        <v>0.9847258340293896</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026642144413243</v>
+        <v>1.035808793819269</v>
       </c>
       <c r="J18">
-        <v>1.021186304666802</v>
+        <v>1.003503979406875</v>
       </c>
       <c r="K18">
-        <v>1.024905992591122</v>
+        <v>1.013343404341196</v>
       </c>
       <c r="L18">
-        <v>1.044653027284265</v>
+        <v>0.9978015342848254</v>
       </c>
       <c r="M18">
-        <v>1.047689085116479</v>
+        <v>0.9988135330437099</v>
       </c>
       <c r="N18">
-        <v>1.011165519213579</v>
+        <v>1.005202486110226</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015006538062927</v>
+        <v>0.9758248183795102</v>
       </c>
       <c r="D19">
-        <v>1.021578602026675</v>
+        <v>0.9997551850774298</v>
       </c>
       <c r="E19">
-        <v>1.041443058157334</v>
+        <v>0.984156733703188</v>
       </c>
       <c r="F19">
-        <v>1.04449418158765</v>
+        <v>0.9852098987476373</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026649463046535</v>
+        <v>1.035875285550028</v>
       </c>
       <c r="J19">
-        <v>1.021223997531996</v>
+        <v>1.003693131260383</v>
       </c>
       <c r="K19">
-        <v>1.024938365995119</v>
+        <v>1.013513579556696</v>
       </c>
       <c r="L19">
-        <v>1.044734160799152</v>
+        <v>0.9981886176434397</v>
       </c>
       <c r="M19">
-        <v>1.047774992298796</v>
+        <v>0.9992229634818844</v>
       </c>
       <c r="N19">
-        <v>1.01117806811253</v>
+        <v>1.005265768335837</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014712438579934</v>
+        <v>0.9742845102730354</v>
       </c>
       <c r="D20">
-        <v>1.02136806034868</v>
+        <v>0.9986834544962756</v>
       </c>
       <c r="E20">
-        <v>1.041015221852147</v>
+        <v>0.9820856042778485</v>
       </c>
       <c r="F20">
-        <v>1.044045149174211</v>
+        <v>0.9830371933581349</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026616621080201</v>
+        <v>1.035576043769872</v>
       </c>
       <c r="J20">
-        <v>1.021055395698655</v>
+        <v>1.00284402130195</v>
       </c>
       <c r="K20">
-        <v>1.024793525360635</v>
+        <v>1.01274949334037</v>
       </c>
       <c r="L20">
-        <v>1.044371334627296</v>
+        <v>0.9964509448029906</v>
       </c>
       <c r="M20">
-        <v>1.047390822320898</v>
+        <v>0.9973850184888322</v>
       </c>
       <c r="N20">
-        <v>1.011121933888152</v>
+        <v>1.00498168889672</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013756631516591</v>
+        <v>0.9691808705373359</v>
       </c>
       <c r="D21">
-        <v>1.020683511407211</v>
+        <v>0.9951369019409774</v>
       </c>
       <c r="E21">
-        <v>1.039625434996259</v>
+        <v>0.9752157655031528</v>
       </c>
       <c r="F21">
-        <v>1.042586523555925</v>
+        <v>0.9758302702474693</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026507896479435</v>
+        <v>1.034569687648732</v>
       </c>
       <c r="J21">
-        <v>1.020506722896776</v>
+        <v>1.000026131331663</v>
       </c>
       <c r="K21">
-        <v>1.024321599849322</v>
+        <v>1.010210996663671</v>
       </c>
       <c r="L21">
-        <v>1.043192132738578</v>
+        <v>0.9906824037768739</v>
       </c>
       <c r="M21">
-        <v>1.04614232049156</v>
+        <v>0.9912844842672963</v>
       </c>
       <c r="N21">
-        <v>1.010939216137224</v>
+        <v>1.00403888907834</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013155942094173</v>
+        <v>0.9658947982233941</v>
       </c>
       <c r="D22">
-        <v>1.020253071494576</v>
+        <v>0.9928572942460436</v>
       </c>
       <c r="E22">
-        <v>1.038752495364843</v>
+        <v>0.9707853229824654</v>
       </c>
       <c r="F22">
-        <v>1.041670357319081</v>
+        <v>0.9711823233753387</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026438043216497</v>
+        <v>1.033910550636638</v>
       </c>
       <c r="J22">
-        <v>1.020161346528809</v>
+        <v>0.9982084756804043</v>
       </c>
       <c r="K22">
-        <v>1.024024093347198</v>
+        <v>1.008571590042578</v>
       </c>
       <c r="L22">
-        <v>1.042451007718959</v>
+        <v>0.9869586272061834</v>
       </c>
       <c r="M22">
-        <v>1.045357693826575</v>
+        <v>0.9873471273044728</v>
       </c>
       <c r="N22">
-        <v>1.010824167078206</v>
+        <v>1.003430726887151</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013474353552867</v>
+        <v>0.9676443722484191</v>
       </c>
       <c r="D23">
-        <v>1.02048125885402</v>
+        <v>0.9940706094180221</v>
       </c>
       <c r="E23">
-        <v>1.039215174751476</v>
+        <v>0.9731449582739752</v>
       </c>
       <c r="F23">
-        <v>1.04215594672872</v>
+        <v>0.9736578106969653</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026475215179987</v>
+        <v>1.034262523147134</v>
       </c>
       <c r="J23">
-        <v>1.020344475129224</v>
+        <v>0.9991765363977023</v>
       </c>
       <c r="K23">
-        <v>1.024181881573269</v>
+        <v>1.009444892175521</v>
       </c>
       <c r="L23">
-        <v>1.042843865397133</v>
+        <v>0.9889422247673086</v>
       </c>
       <c r="M23">
-        <v>1.045773605894255</v>
+        <v>0.9894444234426233</v>
       </c>
       <c r="N23">
-        <v>1.010885172512399</v>
+        <v>1.003754627095644</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.0147284672273</v>
+        <v>0.9743688177686337</v>
       </c>
       <c r="D24">
-        <v>1.021379536173526</v>
+        <v>0.9987420990503203</v>
       </c>
       <c r="E24">
-        <v>1.04103853674327</v>
+        <v>0.9821989898063019</v>
       </c>
       <c r="F24">
-        <v>1.044069619089777</v>
+        <v>0.9831561403647914</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026618418502722</v>
+        <v>1.035592478493674</v>
       </c>
       <c r="J24">
-        <v>1.021064587369054</v>
+        <v>1.002890513564451</v>
       </c>
       <c r="K24">
-        <v>1.024801423823706</v>
+        <v>1.012791340908315</v>
       </c>
       <c r="L24">
-        <v>1.044391109040518</v>
+        <v>0.996546092953603</v>
       </c>
       <c r="M24">
-        <v>1.047411759738094</v>
+        <v>0.997485654006094</v>
       </c>
       <c r="N24">
-        <v>1.011124994321214</v>
+        <v>1.004997243610612</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016184916833098</v>
+        <v>0.9818591743881889</v>
       </c>
       <c r="D25">
-        <v>1.022421728892203</v>
+        <v>1.003959355223595</v>
       </c>
       <c r="E25">
-        <v>1.043158301717278</v>
+        <v>0.9922632499971873</v>
       </c>
       <c r="F25">
-        <v>1.046294423985439</v>
+        <v>0.9937137319672521</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026778076684119</v>
+        <v>1.037025471684402</v>
       </c>
       <c r="J25">
-        <v>1.021898453992095</v>
+        <v>1.007012861989057</v>
       </c>
       <c r="K25">
-        <v>1.025516904492058</v>
+        <v>1.016496516670256</v>
       </c>
       <c r="L25">
-        <v>1.046187884104652</v>
+        <v>1.004982868202776</v>
       </c>
       <c r="M25">
-        <v>1.049314333445733</v>
+        <v>1.006410424337006</v>
       </c>
       <c r="N25">
-        <v>1.011402556892834</v>
+        <v>1.006376324438109</v>
       </c>
     </row>
   </sheetData>
